--- a/TareaPropuesta.xlsx
+++ b/TareaPropuesta.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1- Id</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>9- Fecha DD/MM/AAAA de cierre</t>
+  </si>
+  <si>
+    <t>10. Prioridad</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:AD1239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -621,7 +624,9 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2"/>

--- a/TareaPropuesta.xlsx
+++ b/TareaPropuesta.xlsx
@@ -566,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:AD1239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
